--- a/Pflichtenheft/Aufbau.xlsx
+++ b/Pflichtenheft/Aufbau.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\3881 C# Gr 1 20190731\Gruppe Andritz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\Tuccos\Pflichtenheft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datei" sheetId="2" r:id="rId1"/>
     <sheet name="Struktur" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
   <si>
     <t>Projekt</t>
   </si>
@@ -160,13 +161,85 @@
   </si>
   <si>
     <t>öffnen</t>
+  </si>
+  <si>
+    <t>ProjectId</t>
+  </si>
+  <si>
+    <t>SubAssemblyId</t>
+  </si>
+  <si>
+    <t>CalculationId</t>
+  </si>
+  <si>
+    <t>CalculationType</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>CalculationTemplates</t>
+  </si>
+  <si>
+    <t>CalculationTemplateId</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>CalculationDescription</t>
+  </si>
+  <si>
+    <t>Parametera</t>
+  </si>
+  <si>
+    <t>Parameterb</t>
+  </si>
+  <si>
+    <t>Resultc</t>
+  </si>
+  <si>
+    <t>ExampleCalcultion</t>
+  </si>
+  <si>
+    <t>ParameterType</t>
+  </si>
+  <si>
+    <t>ParameterValue</t>
+  </si>
+  <si>
+    <t>ParameterUnit</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectYear</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>ProjectSubAssembly</t>
+  </si>
+  <si>
+    <t>SubAssemblyName</t>
+  </si>
+  <si>
+    <t>SubAssemblyRngNr</t>
+  </si>
+  <si>
+    <t>SubAssembly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +250,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -321,11 +409,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,9 +492,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,7 +523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -675,7 +791,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -918,11 +1034,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" style="17" customWidth="1"/>
@@ -1717,4 +1833,222 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="E5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="K5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="N5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="Q5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="25"/>
+      <c r="U7" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>